--- a/barberia-app/public/Correcciones finales - SS.GG. - Sr. Óscar.xlsx
+++ b/barberia-app/public/Correcciones finales - SS.GG. - Sr. Óscar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Carlos\01. Negocio 1000\37.00 Servicios Generales - Óscar\05.00 Correcciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usu\Documents\barber-aRefactorizado\barberia-app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4323407F-FE71-48DC-92C4-1A8CF4F984EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350C86C5-1C90-4716-AB6D-8CEF80946C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7890" xr2:uid="{913237DA-3ECE-426D-93D8-4C093180A054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="1" xr2:uid="{913237DA-3ECE-426D-93D8-4C093180A054}"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="5" r:id="rId1"/>
@@ -20,10 +20,19 @@
     <sheet name="General" sheetId="2" r:id="rId5"/>
     <sheet name="Validaciones" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -810,39 +819,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -879,105 +855,48 @@
     <xf numFmtId="9" fontId="6" fillId="6" borderId="22" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
-    <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="195">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="186">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2859,7 +2778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3157,11 +3076,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC0CCD4-C834-4721-9D13-9A3B2445EF75}">
   <dimension ref="B2:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -3176,18 +3095,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3206,15 +3125,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="J5" s="40" t="s">
         <v>10</v>
       </c>
@@ -3223,23 +3142,23 @@
         <v>45937</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
       <c r="C6" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="32">
         <v>45937</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51" t="str">
+      <c r="K6" s="63" t="str">
         <f>IF(COUNTA(F6:F73)=0,"",MAX(F6:F73))</f>
         <v/>
       </c>
@@ -3251,8 +3170,8 @@
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -3261,10 +3180,10 @@
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="59" t="str">
         <f>IF(K6="","",K6-K5+1)</f>
         <v/>
       </c>
@@ -3276,18 +3195,18 @@
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="60"/>
+    </row>
+    <row r="10" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -3295,23 +3214,23 @@
         <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="32">
         <v>45937</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="43">
         <f>COUNTIF(D6:D76,J11)</f>
-        <v>37</v>
-      </c>
-      <c r="L11" s="55">
+        <v>25</v>
+      </c>
+      <c r="L11" s="44">
         <f>IF(K11=0,"",K11/$K$14)</f>
-        <v>1</v>
+        <v>0.67567567567567566</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -3320,23 +3239,23 @@
         <v>28</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="32">
         <v>45937</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="46">
         <f>COUNTIF(D6:D76,J12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="58" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" s="47">
         <f>IF(K12=0,"",K12/$K$14)</f>
-        <v/>
+        <v>2.7027027027027029E-2</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="30" x14ac:dyDescent="0.25">
@@ -3345,23 +3264,23 @@
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="32">
         <v>45937</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="49">
         <f>COUNTIF(D6:D76,J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="61" t="str">
+        <v>11</v>
+      </c>
+      <c r="L13" s="50">
         <f>IF(K13=0,"",K13/$K$14)</f>
-        <v/>
+        <v>0.29729729729729731</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -3370,21 +3289,21 @@
         <v>30</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="32">
         <v>45937</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="52">
         <f>SUM(K11:K13)</f>
         <v>37</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="53">
         <f>IF(SUM(L11:L13)=0,"",SUM(L11:L13))</f>
         <v>1</v>
       </c>
@@ -3395,7 +3314,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="32">
         <v>45937</v>
@@ -3409,7 +3328,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="32">
         <v>45937</v>
@@ -3423,7 +3342,7 @@
         <v>33</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="32">
         <v>45937</v>
@@ -3437,7 +3356,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="32">
         <v>45937</v>
@@ -3445,15 +3364,15 @@
       <c r="F18" s="33"/>
       <c r="G18" s="34"/>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+    <row r="19" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="45"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57"/>
     </row>
     <row r="20" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -3461,7 +3380,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="32">
         <v>45937</v>
@@ -3475,7 +3394,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="32">
         <v>45937</v>
@@ -3489,7 +3408,7 @@
         <v>38</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="32">
         <v>45937</v>
@@ -3497,7 +3416,7 @@
       <c r="F22" s="33"/>
       <c r="G22" s="34"/>
     </row>
-    <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
       <c r="C23" s="14" t="s">
         <v>39</v>
@@ -3525,15 +3444,15 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+    <row r="25" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -3579,15 +3498,15 @@
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+    <row r="30" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
     </row>
     <row r="31" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
@@ -3659,15 +3578,15 @@
       <c r="F35" s="33"/>
       <c r="G35" s="34"/>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="42" t="s">
+    <row r="36" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B36" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="57"/>
     </row>
     <row r="37" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B37" s="28"/>
@@ -3707,15 +3626,15 @@
       <c r="F40" s="33"/>
       <c r="G40" s="34"/>
     </row>
-    <row r="41" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="42" t="s">
+    <row r="41" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B41" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="45"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="28"/>
@@ -3755,15 +3674,15 @@
       <c r="F45" s="33"/>
       <c r="G45" s="34"/>
     </row>
-    <row r="46" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="42" t="s">
+    <row r="46" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B46" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="57"/>
     </row>
     <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="28"/>
@@ -3816,14 +3735,14 @@
       <c r="G50" s="34"/>
     </row>
     <row r="51" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="45"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="57"/>
     </row>
     <row r="52" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="28"/>
@@ -3876,14 +3795,14 @@
       <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="44"/>
-      <c r="F56" s="44"/>
-      <c r="G56" s="45"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="57"/>
     </row>
     <row r="57" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="28"/>
@@ -3984,14 +3903,14 @@
       <c r="G63" s="34"/>
     </row>
     <row r="64" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="45"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="57"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="28"/>
@@ -4026,14 +3945,14 @@
       <c r="G68" s="34"/>
     </row>
     <row r="69" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="42" t="s">
+      <c r="B69" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="45"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="57"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="28"/>
@@ -4075,11 +3994,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B19:G19"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B56:G56"/>
@@ -4092,6 +4006,11 @@
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4928,11 +4847,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA3A363-F04D-45BA-AA10-3EA46FA3559C}">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -4947,18 +4866,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4977,15 +4896,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+    <row r="5" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="J5" s="40" t="s">
         <v>10</v>
       </c>
@@ -5000,17 +4919,17 @@
         <v>26</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="32">
         <v>45937</v>
       </c>
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51" t="str">
+      <c r="K6" s="63" t="str">
         <f>IF(COUNTA(F6:F62)=0,"",MAX(F6:F62))</f>
         <v/>
       </c>
@@ -5022,8 +4941,8 @@
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -5032,10 +4951,10 @@
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="59" t="str">
         <f>IF(K6="","",K6-K5+1)</f>
         <v/>
       </c>
@@ -5047,18 +4966,18 @@
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48"/>
-    </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="60"/>
+    </row>
+    <row r="10" spans="2:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -5066,23 +4985,23 @@
         <v>27</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="32">
         <v>45937</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="43">
         <f>COUNTIF(D6:D84,J11)</f>
-        <v>33</v>
-      </c>
-      <c r="L11" s="55">
+        <v>24</v>
+      </c>
+      <c r="L11" s="44">
         <f>IF(K11=0,"",K11/$K$14)</f>
-        <v>1</v>
+        <v>0.72727272727272729</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -5091,21 +5010,21 @@
         <v>65</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="32">
         <v>45937</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="46">
         <f>COUNTIF(D6:D84,J12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="58" t="str">
+      <c r="L12" s="47" t="str">
         <f>IF(K12=0,"",K12/$K$14)</f>
         <v/>
       </c>
@@ -5116,23 +5035,23 @@
         <v>66</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="32">
         <v>45937</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="49">
         <f>COUNTIF(D6:D84,J13)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="61" t="str">
+        <v>9</v>
+      </c>
+      <c r="L13" s="50">
         <f>IF(K13=0,"",K13/$K$14)</f>
-        <v/>
+        <v>0.27272727272727271</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="45" x14ac:dyDescent="0.25">
@@ -5141,21 +5060,21 @@
         <v>67</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="32">
         <v>45937</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="52">
         <f>SUM(K11:K13)</f>
         <v>33</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="53">
         <f>IF(SUM(L11:L13)=0,"",SUM(L11:L13))</f>
         <v>1</v>
       </c>
@@ -5166,7 +5085,7 @@
         <v>68</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="32">
         <v>45937</v>
@@ -5180,7 +5099,7 @@
         <v>69</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="32">
         <v>45937</v>
@@ -5230,13 +5149,13 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
       <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="32">
         <v>45937</v>
@@ -5253,14 +5172,14 @@
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
     </row>
     <row r="23" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="28"/>
@@ -5268,7 +5187,7 @@
         <v>33</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="32">
         <v>45937</v>
@@ -5290,7 +5209,7 @@
       <c r="F24" s="33"/>
       <c r="G24" s="34"/>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="28"/>
       <c r="C25" s="14" t="s">
         <v>74</v>
@@ -5319,14 +5238,14 @@
       <c r="G26" s="34"/>
     </row>
     <row r="27" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -5350,7 +5269,7 @@
       <c r="F29" s="33"/>
       <c r="G29" s="34"/>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
       <c r="C30" s="14"/>
       <c r="D30" s="12"/>
@@ -5367,14 +5286,14 @@
       <c r="G31" s="34"/>
     </row>
     <row r="32" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
     </row>
     <row r="33" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
@@ -5488,7 +5407,7 @@
       <c r="F40" s="33"/>
       <c r="G40" s="34"/>
     </row>
-    <row r="41" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="28"/>
       <c r="C41" s="14" t="s">
         <v>79</v>
@@ -5511,14 +5430,14 @@
       <c r="G42" s="34"/>
     </row>
     <row r="43" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="45"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="57"/>
     </row>
     <row r="44" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="28"/>
@@ -5559,14 +5478,14 @@
       <c r="G47" s="34"/>
     </row>
     <row r="48" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="28"/>
@@ -5607,14 +5526,14 @@
       <c r="G52" s="34"/>
     </row>
     <row r="53" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="44"/>
-      <c r="F53" s="44"/>
-      <c r="G53" s="45"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="57"/>
     </row>
     <row r="54" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="28"/>
@@ -5673,14 +5592,14 @@
       <c r="G57" s="34"/>
     </row>
     <row r="58" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="45"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="57"/>
     </row>
     <row r="59" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="28"/>
@@ -5710,7 +5629,7 @@
       <c r="F60" s="33"/>
       <c r="G60" s="34"/>
     </row>
-    <row r="61" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="28"/>
       <c r="C61" s="14"/>
       <c r="D61" s="12"/>
@@ -5728,6 +5647,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="B48:G48"/>
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B58:G58"/>
@@ -5736,12 +5661,6 @@
     <mergeCell ref="B27:G27"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6488,11 +6407,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022FF529-910F-4540-A892-13601C07DFCB}">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -6507,18 +6426,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6538,14 +6457,14 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="J5" s="40" t="s">
         <v>10</v>
       </c>
@@ -6561,10 +6480,10 @@
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51" t="str">
+      <c r="K6" s="63" t="str">
         <f>IF(COUNTA(F6:F29)=0,"",MAX(F6:F29))</f>
         <v/>
       </c>
@@ -6576,8 +6495,8 @@
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -6586,10 +6505,10 @@
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="59" t="str">
         <f>IF(K6="","",K6-K5+1)</f>
         <v/>
       </c>
@@ -6601,18 +6520,18 @@
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -6627,14 +6546,14 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="43">
         <f>COUNTIF(D6:D56,J11)</f>
         <v>4</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="44">
         <f>IF(K11=0,"",K11/$K$14)</f>
         <v>1</v>
       </c>
@@ -6646,14 +6565,14 @@
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="46">
         <f>COUNTIF(D6:D56,J12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="58" t="str">
+      <c r="L12" s="47" t="str">
         <f>IF(K12=0,"",K12/$K$14)</f>
         <v/>
       </c>
@@ -6665,14 +6584,14 @@
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="49">
         <f>COUNTIF(D6:D56,J13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="61" t="str">
+      <c r="L13" s="50" t="str">
         <f>IF(K13=0,"",K13/$K$14)</f>
         <v/>
       </c>
@@ -6684,27 +6603,27 @@
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="52">
         <f>SUM(K11:K13)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="53">
         <f>IF(SUM(L11:L13)=0,"",SUM(L11:L13))</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -6745,14 +6664,14 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -6793,14 +6712,14 @@
       <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
     </row>
     <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -7287,10 +7206,10 @@
   <dimension ref="B2:L57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="47.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -7305,18 +7224,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="36" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7336,14 +7255,14 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
       <c r="J5" s="40" t="s">
         <v>10</v>
       </c>
@@ -7359,10 +7278,10 @@
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
       <c r="G6" s="34"/>
-      <c r="J6" s="49" t="s">
+      <c r="J6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="51" t="str">
+      <c r="K6" s="63" t="str">
         <f>IF(COUNTA(F6:F41)=0,"",MAX(F6:F41))</f>
         <v/>
       </c>
@@ -7374,8 +7293,8 @@
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
       <c r="G7" s="34"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="52"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="64"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
@@ -7384,10 +7303,10 @@
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
       <c r="G8" s="34"/>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="47" t="str">
+      <c r="K8" s="59" t="str">
         <f>IF(K6="","",K6-K5+1)</f>
         <v/>
       </c>
@@ -7399,18 +7318,18 @@
       <c r="E9" s="32"/>
       <c r="F9" s="33"/>
       <c r="G9" s="34"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
     </row>
     <row r="11" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="28"/>
@@ -7425,14 +7344,14 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="34"/>
-      <c r="J11" s="53" t="s">
+      <c r="J11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="43">
         <f>COUNTIF(D6:D73,J11)</f>
         <v>11</v>
       </c>
-      <c r="L11" s="55">
+      <c r="L11" s="44">
         <f>IF(K11=0,"",K11/$K$14)</f>
         <v>1</v>
       </c>
@@ -7444,14 +7363,14 @@
       <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="34"/>
-      <c r="J12" s="56" t="s">
+      <c r="J12" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="57">
+      <c r="K12" s="46">
         <f>COUNTIF(D6:D73,J12)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="58" t="str">
+      <c r="L12" s="47" t="str">
         <f>IF(K12=0,"",K12/$K$14)</f>
         <v/>
       </c>
@@ -7463,14 +7382,14 @@
       <c r="E13" s="32"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="J13" s="59" t="s">
+      <c r="J13" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="49">
         <f>COUNTIF(D6:D73,J13)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="61" t="str">
+      <c r="L13" s="50" t="str">
         <f>IF(K13=0,"",K13/$K$14)</f>
         <v/>
       </c>
@@ -7482,27 +7401,27 @@
       <c r="E14" s="32"/>
       <c r="F14" s="33"/>
       <c r="G14" s="34"/>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="52">
         <f>SUM(K11:K13)</f>
         <v>11</v>
       </c>
-      <c r="L14" s="64">
+      <c r="L14" s="53">
         <f>IF(SUM(L11:L13)=0,"",SUM(L11:L13))</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="45"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -7543,14 +7462,14 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
     </row>
     <row r="21" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="28"/>
@@ -7597,14 +7516,14 @@
       <c r="G24" s="34"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
     </row>
     <row r="26" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -7685,14 +7604,14 @@
       <c r="G31" s="34"/>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="28"/>
@@ -7733,14 +7652,14 @@
       <c r="G36" s="34"/>
     </row>
     <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="57"/>
     </row>
     <row r="38" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
@@ -7784,18 +7703,18 @@
     <row r="57" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="B37:G37"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8453,10 +8372,10 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="61.85546875" customWidth="1"/>
@@ -8467,11 +8386,11 @@
       <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
@@ -8498,14 +8417,14 @@
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="54">
+      <c r="G5" s="43">
         <f>COUNTIF(C5:C70,F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="55" t="str">
+      <c r="H5" s="44" t="str">
         <f>IF(G5=0,"",G5/$G$8)</f>
         <v/>
       </c>
@@ -8515,14 +8434,14 @@
       <c r="B6" s="14"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="46">
         <f>COUNTIF(C5:C71,F6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="58" t="str">
+      <c r="H6" s="47" t="str">
         <f>IF(G6=0,"",G6/$G$8)</f>
         <v/>
       </c>
@@ -8532,14 +8451,14 @@
       <c r="B7" s="16"/>
       <c r="C7" s="12"/>
       <c r="D7" s="13"/>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="49">
         <f>COUNTIF(C5:C71,F7)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="61" t="str">
+      <c r="H7" s="50" t="str">
         <f>IF(G7=0,"",G7/$G$8)</f>
         <v/>
       </c>
@@ -8549,14 +8468,14 @@
       <c r="B8" s="18"/>
       <c r="C8" s="12"/>
       <c r="D8" s="19"/>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="52">
         <f>SUM(G5:G7)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="64" t="str">
+      <c r="H8" s="53" t="str">
         <f>IF(SUM(H5:H7)=0,"",SUM(H5:H7))</f>
         <v/>
       </c>
@@ -8590,16 +8509,16 @@
       <c r="B13" s="16"/>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="43">
         <f>+Admin!K11+Supervisor!K11+'RR.HH.'!K11+Técnico!K11+General!G5</f>
-        <v>85</v>
-      </c>
-      <c r="H13" s="55">
+        <v>64</v>
+      </c>
+      <c r="H13" s="44">
         <f>IF(G13=0,"",G13/$G$16)</f>
-        <v>1</v>
+        <v>0.75294117647058822</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -8607,16 +8526,16 @@
       <c r="B14" s="18"/>
       <c r="C14" s="12"/>
       <c r="D14" s="19"/>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="46">
         <f>+Admin!K12+Supervisor!K12+'RR.HH.'!K12+Técnico!K12+General!G6</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="55" t="str">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44">
         <f>IF(G14=0,"",G14/$G$16)</f>
-        <v/>
+        <v>1.1764705882352941E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -8624,16 +8543,16 @@
       <c r="B15" s="16"/>
       <c r="C15" s="12"/>
       <c r="D15" s="19"/>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="49">
         <f>+Admin!K13+Supervisor!K13+'RR.HH.'!K13+Técnico!K13+General!G7</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="55" t="str">
+        <v>20</v>
+      </c>
+      <c r="H15" s="44">
         <f>IF(G15=0,"",G15/$G$16)</f>
-        <v/>
+        <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -8641,14 +8560,14 @@
       <c r="B16" s="18"/>
       <c r="C16" s="12"/>
       <c r="D16" s="19"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="52">
         <f>SUM(G13:G15)</f>
         <v>85</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="53">
         <f>IF(SUM(H13:H15)=0,"",SUM(H13:H15))</f>
         <v>1</v>
       </c>
@@ -9051,7 +8970,7 @@
       <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
